--- a/xlsx/貝里斯_intext.xlsx
+++ b/xlsx/貝里斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>伯利兹国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_貝里斯</t>
+    <t>体育运动_体育运动_南非_貝里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9%E5%9B%BD%E5%BE%BD</t>
